--- a/SIMMR QPA/QPAFeb17.xlsx
+++ b/SIMMR QPA/QPAFeb17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guti\Documents\R\win-library\3.6\simmr\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\Manuscript 2019 Stable Isotopes\Isotopes-Analysis\SIMMR QPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4797533B-1496-4A94-8A3C-CDB49FF0BE77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E0C319-1602-431C-9ABB-305AD468C772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{682CD829-CE99-4243-847C-7BC9FABF46A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{682CD829-CE99-4243-847C-7BC9FABF46A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +91,11 @@
       <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,9 +118,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4948DE50-105B-4A72-9D97-ECACD847B3F9}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,374 +463,374 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>-39.47</v>
-      </c>
-      <c r="B2">
-        <v>2.89</v>
+      <c r="A2" s="2">
+        <v>-39.473999999999997</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.8886092628571447</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>-39.5</v>
-      </c>
-      <c r="B3">
-        <v>2.13</v>
+      <c r="A3" s="2">
+        <v>-39.501999999999995</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.1303337714285724</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>-27.26</v>
-      </c>
-      <c r="B4">
-        <v>4.6100000000000003</v>
+      <c r="A4" s="2">
+        <v>-32.408000000000001</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.5325102471428576</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>-27.24</v>
-      </c>
-      <c r="B5">
-        <v>4.22</v>
+      <c r="A5" s="2">
+        <v>-32.295999999999999</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7.3471778457142864</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>-27.63</v>
-      </c>
-      <c r="B6">
-        <v>2.97</v>
+      <c r="A6" s="2">
+        <v>-27.261999999999997</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4.6124988200000008</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>-27.65</v>
-      </c>
-      <c r="B7">
-        <v>3.21</v>
+      <c r="A7" s="2">
+        <v>-27.241</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4.2180651885714306</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>-27.27</v>
-      </c>
-      <c r="B8">
-        <v>2.2000000000000002</v>
+      <c r="A8" s="2">
+        <v>-27.393999999999998</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3.4240874585714316</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>-26.3</v>
-      </c>
-      <c r="B9">
-        <v>2.06</v>
+      <c r="A9" s="2">
+        <v>-27.532999999999998</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.9284655371428583</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>-27.39</v>
-      </c>
-      <c r="B10">
-        <v>3.42</v>
+      <c r="A10" s="2">
+        <v>-27.52</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.9818735757142862</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>-27.53</v>
-      </c>
-      <c r="B11">
-        <v>2.93</v>
+      <c r="A11" s="2">
+        <v>-27.257999999999999</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.7251599742857162</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>-27.52</v>
-      </c>
-      <c r="B12">
-        <v>2.98</v>
+      <c r="A12" s="2">
+        <v>-27.63</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.9737149771428593</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>-27.26</v>
-      </c>
-      <c r="B13">
-        <v>2.73</v>
+      <c r="A13" s="2">
+        <v>-27.65</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.2149758857142872</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>-28.86</v>
-      </c>
-      <c r="B14">
-        <v>4.5599999999999996</v>
+      <c r="A14" s="2">
+        <v>-27.27</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.2015062342857159</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>-26.95</v>
-      </c>
-      <c r="B15">
-        <v>4.8600000000000003</v>
+      <c r="A15" s="2">
+        <v>-26.302</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2.0551242628571451</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>-27.78</v>
-      </c>
-      <c r="B16">
-        <v>4.87</v>
+      <c r="A16" s="2">
+        <v>-28.856999999999999</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4.5603156928571451</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>-28.07</v>
-      </c>
-      <c r="B17">
-        <v>4.9000000000000004</v>
+      <c r="A17" s="2">
+        <v>-26.946999999999999</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4.8550822514285725</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>-32.409999999999997</v>
-      </c>
-      <c r="B18">
-        <v>5.53</v>
+      <c r="A18" s="2">
+        <v>-27.776</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4.866375790000002</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>-32.299999999999997</v>
-      </c>
-      <c r="B19">
-        <v>7.35</v>
+      <c r="A19" s="2">
+        <v>-28.072999999999997</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4.8998042285714307</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>-25.94</v>
-      </c>
-      <c r="B20">
-        <v>4.0199999999999996</v>
+      <c r="A20" s="2">
+        <v>-25.616</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6.2697142857142856</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>-26.4</v>
-      </c>
-      <c r="B21">
-        <v>4.87</v>
+      <c r="A21" s="2">
+        <v>-25.574999999999999</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5.9701428571428563</v>
       </c>
       <c r="C21">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>-25.04</v>
-      </c>
-      <c r="B22">
-        <v>3.3</v>
+      <c r="A22" s="2">
+        <v>-25.428999999999998</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5.4984285714285717</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>-26.24</v>
-      </c>
-      <c r="B23">
-        <v>4.21</v>
+      <c r="A23" s="2">
+        <v>-25.562999999999999</v>
+      </c>
+      <c r="B23" s="2">
+        <v>6.4058571428571423</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>-26.98</v>
-      </c>
-      <c r="B24">
-        <v>4.82</v>
+      <c r="A24" s="2">
+        <v>-26.978999999999999</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4.8220000000000001</v>
       </c>
       <c r="C24">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>-26.92</v>
-      </c>
-      <c r="B25">
-        <v>4.29</v>
+      <c r="A25" s="2">
+        <v>-26.923999999999999</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4.2884285714285708</v>
       </c>
       <c r="C25">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>-26.94</v>
-      </c>
-      <c r="B26">
-        <v>4.8899999999999997</v>
+      <c r="A26" s="2">
+        <v>-26.939999999999998</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4.894857142857143</v>
       </c>
       <c r="C26">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>-26.79</v>
-      </c>
-      <c r="B27">
-        <v>4.93</v>
+      <c r="A27" s="2">
+        <v>-26.785999999999998</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4.9292857142857143</v>
       </c>
       <c r="C27">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>-25.62</v>
-      </c>
-      <c r="B28">
-        <v>6.27</v>
+      <c r="A28" s="2">
+        <v>-25.936</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4.0202857142857145</v>
       </c>
       <c r="C28">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>-25.58</v>
-      </c>
-      <c r="B29">
-        <v>5.97</v>
+      <c r="A29" s="2">
+        <v>-26.395</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4.8677142857142854</v>
       </c>
       <c r="C29">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>-25.43</v>
-      </c>
-      <c r="B30">
-        <v>5.5</v>
+      <c r="A30" s="2">
+        <v>-25.035</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3.3001428571428573</v>
       </c>
       <c r="C30">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>-25.56</v>
-      </c>
-      <c r="B31">
-        <v>6.41</v>
+      <c r="A31" s="2">
+        <v>-26.236000000000001</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4.213571428571429</v>
       </c>
       <c r="C31">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>-27.49</v>
-      </c>
-      <c r="B32">
-        <v>6.57</v>
+      <c r="A32" s="2">
+        <v>-27.492000000000001</v>
+      </c>
+      <c r="B32" s="2">
+        <v>6.5702857142857143</v>
       </c>
       <c r="C32">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>-27.37</v>
-      </c>
-      <c r="B33">
-        <v>6.82</v>
+      <c r="A33" s="2">
+        <v>-27.373999999999999</v>
+      </c>
+      <c r="B33" s="2">
+        <v>6.8177142857142856</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>-27.34</v>
-      </c>
-      <c r="B34">
-        <v>5.76</v>
+      <c r="A34" s="2">
+        <v>-27.335000000000001</v>
+      </c>
+      <c r="B34" s="2">
+        <v>5.7641428571428577</v>
       </c>
       <c r="C34">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>-27.39</v>
-      </c>
-      <c r="B35">
-        <v>6.86</v>
+      <c r="A35" s="2">
+        <v>-27.387999999999998</v>
+      </c>
+      <c r="B35" s="2">
+        <v>6.8635714285714284</v>
       </c>
       <c r="C35">
         <v>10</v>
@@ -855,7 +868,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B2" sqref="B2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,34 +899,34 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>-32.08</v>
-      </c>
-      <c r="C2">
-        <v>0.56000000000000005</v>
+      <c r="B2" s="5">
+        <v>-32.074999999999996</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.55899999999999994</v>
       </c>
       <c r="D2">
-        <v>0.15</v>
+        <v>0.17089958065093788</v>
       </c>
       <c r="E2">
-        <v>0.28000000000000003</v>
+        <v>0.31891482666484261</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>-31.692499999999999</v>
       </c>
-      <c r="C3">
-        <v>6.0611989499999996</v>
+      <c r="C3" s="5">
+        <v>6.0611989503571433</v>
       </c>
       <c r="D3">
-        <v>0.184171795</v>
+        <v>0.21266327061029236</v>
       </c>
       <c r="E3">
-        <v>0.28537337000000002</v>
+        <v>0.32952078388487793</v>
       </c>
     </row>
   </sheetData>

--- a/SIMMR QPA/QPAFeb17.xlsx
+++ b/SIMMR QPA/QPAFeb17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\Manuscript 2019 Stable Isotopes\Isotopes-Analysis\SIMMR QPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E0C319-1602-431C-9ABB-305AD468C772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152B290E-D338-414D-AABE-5FD6834953E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{682CD829-CE99-4243-847C-7BC9FABF46A6}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SIMMR QPA/QPAFeb17.xlsx
+++ b/SIMMR QPA/QPAFeb17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\Manuscript 2019 Stable Isotopes\Isotopes-Analysis\SIMMR QPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152B290E-D338-414D-AABE-5FD6834953E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B062F367-FF69-4310-9A81-1A5079579AF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{682CD829-CE99-4243-847C-7BC9FABF46A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{682CD829-CE99-4243-847C-7BC9FABF46A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Source</t>
   </si>
@@ -445,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4948DE50-105B-4A72-9D97-ECACD847B3F9}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -865,10 +865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5769C2C-76EC-4477-87AA-85AA9E349D2E}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -929,6 +929,23 @@
         <v>0.32952078388487793</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-26.41</v>
+      </c>
+      <c r="C4">
+        <v>6.34</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -936,10 +953,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923AFFC4-5D99-4670-8F71-3E87D037D088}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,7 +1001,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>-0.41</v>
@@ -996,6 +1013,23 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="E3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-0.41</v>
+      </c>
+      <c r="C4">
+        <v>0.6</v>
+      </c>
+      <c r="D4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E4">
         <v>1.7</v>
       </c>
     </row>

--- a/SIMMR QPA/QPAFeb17.xlsx
+++ b/SIMMR QPA/QPAFeb17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\Manuscript 2019 Stable Isotopes\Isotopes-Analysis\SIMMR QPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B062F367-FF69-4310-9A81-1A5079579AF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99937B6C-BC6F-47B8-B603-0C2E7A589278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{682CD829-CE99-4243-847C-7BC9FABF46A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{682CD829-CE99-4243-847C-7BC9FABF46A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets" sheetId="1" r:id="rId1"/>
@@ -867,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5769C2C-76EC-4477-87AA-85AA9E349D2E}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,16 +934,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-26.41</v>
+        <v>-31.32</v>
       </c>
       <c r="C4">
-        <v>6.34</v>
+        <v>11.09</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="E4">
-        <v>1.97</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923AFFC4-5D99-4670-8F71-3E87D037D088}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/SIMMR QPA/QPAFeb17.xlsx
+++ b/SIMMR QPA/QPAFeb17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTER\Manuscript 2019 Stable Isotopes\Isotopes-Analysis\SIMMR QPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99937B6C-BC6F-47B8-B603-0C2E7A589278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8792A5-2698-4D4B-87C5-E2006C162BF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{682CD829-CE99-4243-847C-7BC9FABF46A6}"/>
   </bookViews>
@@ -868,7 +868,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,16 +934,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-31.32</v>
+        <v>-26.59</v>
       </c>
       <c r="C4">
-        <v>11.09</v>
+        <v>8.01</v>
       </c>
       <c r="D4">
-        <v>0.01</v>
+        <v>4.05</v>
       </c>
       <c r="E4">
-        <v>0.06</v>
+        <v>4.0199999999999996</v>
       </c>
     </row>
   </sheetData>
